--- a/data/trans_bre/P1423_2016_2023-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1423_2016_2023-Habitat-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>5.655271665773967</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>1.941532330371708</v>
+        <v>1.941532330371706</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>2.699427628755464</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.3564480036511777</v>
+        <v>0.3564480036511775</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.543127005818711</v>
+        <v>3.531655530859374</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2048350648867306</v>
+        <v>-0.5370997988233859</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1.13051279532816</v>
+        <v>1.077173155974849</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.04113978797345486</v>
+        <v>-0.08502642711374292</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.998819436780232</v>
+        <v>8.471244589464035</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.205958154406606</v>
+        <v>4.064096380183651</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6.10583515367941</v>
+        <v>6.438439394887817</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.014212709334444</v>
+        <v>1.036007482261879</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         <v>5.069594467066024</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>4.227105088584685</v>
+        <v>4.227105088584683</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>4.608093241646225</v>
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.551962955956922</v>
+        <v>3.552379216446697</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.294188218728663</v>
+        <v>2.574702219565294</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>2.030439402560783</v>
+        <v>1.940828644798337</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4333040980269656</v>
+        <v>0.5086137392268814</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.941184779282033</v>
+        <v>6.968590914656246</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.909066121686964</v>
+        <v>6.010292523338888</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>10.35789667482289</v>
+        <v>10.85729455664553</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.003550588322452</v>
+        <v>2.086059768411673</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>2.438572869763487</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>3.839438757351949</v>
+        <v>3.839438757351948</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.9778015795076491</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.8744776669719124</v>
+        <v>0.8744776669719121</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6136900455913995</v>
+        <v>0.5482394924393519</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.433535711409657</v>
+        <v>1.275286081501256</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.1044666284405981</v>
+        <v>0.1077803310511368</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.2017796100184107</v>
+        <v>0.2276527666468597</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.671049934306389</v>
+        <v>4.459691791132373</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.188754071083211</v>
+        <v>5.818179815395632</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>2.761066080885098</v>
+        <v>2.512855453033502</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.868138204311481</v>
+        <v>1.805676083126391</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.684686139480003</v>
+        <v>3.641012739390775</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.227035996694549</v>
+        <v>0.8795877258980656</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.967056732164198</v>
+        <v>0.8910169506724275</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1622973787927819</v>
+        <v>0.1350243270423411</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.679534917291793</v>
+        <v>7.920059499804909</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.091998734507255</v>
+        <v>5.184966112003927</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.531009927860054</v>
+        <v>3.972610961614242</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.060085890814932</v>
+        <v>1.046771125247793</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>4.781093856424272</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3.417553164564072</v>
+        <v>3.41755316456407</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>2.299789269924982</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.7114116201302876</v>
+        <v>0.7114116201302874</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.788970451204182</v>
+        <v>3.787850804024305</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.297281889727754</v>
+        <v>2.390333144164512</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1.531721883898092</v>
+        <v>1.524234871106572</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.426733882264283</v>
+        <v>0.4379721818695045</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.861539509062981</v>
+        <v>5.925380679715946</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.400926555599149</v>
+        <v>4.496586532479223</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3.359459704637386</v>
+        <v>3.385958816075177</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.038068494781388</v>
+        <v>1.0417633364927</v>
       </c>
     </row>
     <row r="19">
